--- a/backend/vehiculos_prueba.xlsx
+++ b/backend/vehiculos_prueba.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Resolución Padre</t>
+          <t>Resolución Primigenia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resolución Primigenia</t>
+          <t>Resolución Hija</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -576,11 +576,7 @@
           <t>001-2024-DRTC-PUNO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>001-2024-DRTC-PUNO</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>01,02</t>
@@ -683,11 +679,7 @@
           <t>002-2024-DRTC-PUNO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002-2024-DRTC-PUNO</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>03</t>

--- a/backend/vehiculos_prueba.xlsx
+++ b/backend/vehiculos_prueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,100 +461,105 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Sede de Registro</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Categoría</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Marca</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Modelo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Año Fabricación</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Número Serie</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Chasis</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ejes</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Asientos</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Peso Neto (kg)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Peso Bruto (kg)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Largo (m)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Ancho (m)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Alto (m)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tipo Combustible</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Cilindrada</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Potencia (HP)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -584,80 +589,85 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>PUNO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>MERCEDES BENZ</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>O500</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2020</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>BLANCO</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>MB001</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>OM 457 LA</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>WDB001</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>50</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>8500</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>16000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>12</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>2.55</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>3.2</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>11967</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>354</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Vehículo de prueba 1</t>
         </is>
@@ -687,80 +697,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>N3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>VOLVO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>FH16</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>2019</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>AZUL</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>VL002</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>D16G750</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>VOL002</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>12000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>26000</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>16</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2.6</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>3.8</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>16000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>750</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Vehículo de prueba 2</t>
         </is>
@@ -786,80 +801,85 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>CUSCO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>FORD</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>TRANSIT</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2021</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>PLATEADO</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>FD003</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2.0L EcoBlue</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>FOR003</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>15</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>2200</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>3500</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5.3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>2.5</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>1997</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>130</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Placa duplicada</t>
         </is>
@@ -881,80 +901,85 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
+          <t>INVALID_SEDE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>INVALID</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>TOYOTA</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>HIACE</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1800</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>ROJO</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>TY004</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2.7L</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>TOY004</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>12</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>1800</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>3000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.8</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>2.2</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>INVALID</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>2700</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>150</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Datos inválidos</t>
         </is>
@@ -976,80 +1001,85 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>SCANIA</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>K320</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2022</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>VERDE</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SC005</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>DC13-320</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>SCA005</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>32</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>8800</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>17200</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>10.8</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>3.1</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>13000</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>320</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Vehículo de prueba 5</t>
         </is>

--- a/backend/vehiculos_prueba.xlsx
+++ b/backend/vehiculos_prueba.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-2024-DRTC-PUNO</t>
+          <t>R-1001-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002-2024-DRTC-PUNO</t>
+          <t>R-1002-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -893,10 +893,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FORMATO-INVALIDO</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
